--- a/medicine/Psychotrope/Ninkasi_(brasserie)/Ninkasi_(brasserie).xlsx
+++ b/medicine/Psychotrope/Ninkasi_(brasserie)/Ninkasi_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ninkasi est une chaîne de 25 restaurants, une marque de bière, une brasserie et une salle de concerts française. Elle est fondée en 1997 par Christophe Fargier à Gerland à Lyon. Le réseau de bars-restaurants est présent principalement à Lyon et dans la région. Le nom Ninkasi est issu de la première divinité historique, Ninkasi, associée à la bière.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept du Ninkasi, importé des États-Unis[1], est basé sur l'association de la bière, du burger et de la musique, ainsi que le mélange des gens et des genres[2].
-Ouverte initialement dans le quartier de Gerland à Lyon en 1997, la brasserie Ninkasi a ouvert par la suite plusieurs bars et restaurants à Lyon (Hôtel de ville -fermé en 2017-, Ampère -fermé en 2013-, Sans-Souci, Croix-Rousse, Guillotière, Saint Paul, Gorge de Loup et Vaise -ouverture en juin 2018-), Villeurbanne (Gratte-Ciel, Campus de la Doua, La Soie[3]) et Vaulx-en-Velin, ainsi qu'à Tarare. Plus loin de Lyon, un établissement est inauguré en décembre 2014 aux Menuires en Savoie et une brasserie ouvre mi-avril 2016 à Saint-Romain-en-Gal[4],[5]. Le concept continue de s'exporter puisqu'en 2017 un nouvel établissement ouvre à Brignais, ont suivi début 2018 des ouvertures à Tignieu et Champagne au Mont d'Or. En 2019 les villes de Bourgoin-Jallieu et Andrézieux-Bouthéon[6] sont également investies ainsi que Saint-Étienne (sa ville natale) dans une ancienne halle de Sam Outillage en face du Zénith, puis Villefranche-sur-Saône en février 2020[7], et la même année à Aubière (fermé depuis mars 2023), Dijon, et à proximité du Parc Olympique lyonnais en banlieue lyonnaise[8].
-La brasserie commence sa production en 1997 dans le quartier lyonnais de Gerland[9].
-La place disponible sur le site historique pour brasser devenant insuffisante, l'entreprise a décidé en 2010 d'un futur déménagement vers Tarare, où une fabrique d'une capacité de 20 000 hl a été installée en février 2012, en lieu et place des anciens établissements textiles Marin des « Teintureries de la Turdine » de 7 000 m2, dont la réhabilitation est en partie financée par l’État par une subvention de 500 000 d'euros[9] ; la production à Tarare commence en février 2012. Une distillerie a été installée à Tarare en complément en juillet 2014. La production de vodka démarre en 2015, la même année les whiskies sont mis à vieillir en fût, le premier étant sorti fin 2018. Un gin est également lancé en décembre 2018.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept du Ninkasi, importé des États-Unis, est basé sur l'association de la bière, du burger et de la musique, ainsi que le mélange des gens et des genres.
+Ouverte initialement dans le quartier de Gerland à Lyon en 1997, la brasserie Ninkasi a ouvert par la suite plusieurs bars et restaurants à Lyon (Hôtel de ville -fermé en 2017-, Ampère -fermé en 2013-, Sans-Souci, Croix-Rousse, Guillotière, Saint Paul, Gorge de Loup et Vaise -ouverture en juin 2018-), Villeurbanne (Gratte-Ciel, Campus de la Doua, La Soie) et Vaulx-en-Velin, ainsi qu'à Tarare. Plus loin de Lyon, un établissement est inauguré en décembre 2014 aux Menuires en Savoie et une brasserie ouvre mi-avril 2016 à Saint-Romain-en-Gal,. Le concept continue de s'exporter puisqu'en 2017 un nouvel établissement ouvre à Brignais, ont suivi début 2018 des ouvertures à Tignieu et Champagne au Mont d'Or. En 2019 les villes de Bourgoin-Jallieu et Andrézieux-Bouthéon sont également investies ainsi que Saint-Étienne (sa ville natale) dans une ancienne halle de Sam Outillage en face du Zénith, puis Villefranche-sur-Saône en février 2020, et la même année à Aubière (fermé depuis mars 2023), Dijon, et à proximité du Parc Olympique lyonnais en banlieue lyonnaise.
+La brasserie commence sa production en 1997 dans le quartier lyonnais de Gerland.
+La place disponible sur le site historique pour brasser devenant insuffisante, l'entreprise a décidé en 2010 d'un futur déménagement vers Tarare, où une fabrique d'une capacité de 20 000 hl a été installée en février 2012, en lieu et place des anciens établissements textiles Marin des « Teintureries de la Turdine » de 7 000 m2, dont la réhabilitation est en partie financée par l’État par une subvention de 500 000 d'euros ; la production à Tarare commence en février 2012. Une distillerie a été installée à Tarare en complément en juillet 2014. La production de vodka démarre en 2015, la même année les whiskies sont mis à vieillir en fût, le premier étant sorti fin 2018. Un gin est également lancé en décembre 2018.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bières Ninkasi
-La Fabrique de Tarare est installée dans les anciennes teintureries de la ville. L’eau de Tarare, la Turdine est issue des monts granitiques du Beaujolais, est réputée pour sa pureté et sa douceur. Elle est idéale pour le brassage. 
+          <t>Les bières Ninkasi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Fabrique de Tarare est installée dans les anciennes teintureries de la ville. L’eau de Tarare, la Turdine est issue des monts granitiques du Beaujolais, est réputée pour sa pureté et sa douceur. Elle est idéale pour le brassage. 
 De quoi perpétuer la tradition du passé brassicole lyonnais. En effet, Lyon a longtemps été une ville de bière notamment grâce à la bière noire de Lyon. Certains parlent même d’un 3ème fleuve dans la capitale des Gaules.
 Ninkasi dispose de plusieurs gammes de bières : 
 La gamme classique :
@@ -572,9 +591,43 @@
 Ninkasi Smoky Ale (ambrée fumée)
 Ninkasi Quadruple (style belge)
 Ninkasi Porter de Lyon (brune aux ingrédients locaux)
-Cidre infusé au houblon
-Les sodas crafts Ninkasi
-La marque se diversifie en produisant ses propres sodas. 
+Cidre infusé au houblon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activité et produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les sodas crafts Ninkasi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque se diversifie en produisant ses propres sodas. 
 Les sodas crafts sont produits à Tarare en petites séries. Ils sont fabriqués à partir de fleur de houblon. Des recettes originales et étonnantes qui brassent l’univers de la bière et des boissons sans alcool.
 4 recettes 100% originales :
 La limonade Ninkasi est brassée au houblon Cascade et au citron
@@ -582,52 +635,162 @@
 Le Tonic 100% made in Rhône-Alpes parfait pour un GinTonic, lui aussi Ninkasi
 Une Ginger Ale : une limonade aux notes de gingembre
 .
-Le Ninkasi whisky
-La distillerie Ninkasi est située à Tarare, aux portes du Beaujolais Vert. Elle dispose d’un accès direct à la source de la rivière Turdine, dont l’eau est l’une des plus douces de France. Le wash est préparé à base d’orge malté français au cœur de notre salle de brassage.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activité et produits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Ninkasi whisky</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distillerie Ninkasi est située à Tarare, aux portes du Beaujolais Vert. Elle dispose d’un accès direct à la source de la rivière Turdine, dont l’eau est l’une des plus douces de France. Le wash est préparé à base d’orge malté français au cœur de notre salle de brassage.  
 Deux magnifiques alambics à repasse en cuivre trônent dans la salle de distillation. Ils ont été façonnés à la main par le fabricant Chalvignac, dans la pure tradition Charentaise. Grâce des matières premières de qualité et des instruments de travail perfectionnés, la production de whisky débute en 2015.
 Le Whisky signature de Ninkasi est le Ninkasi Whisky Vieilli en fût de Chardonnay. 
 Ce single malt Ninkasi est issu d’un brassin d’orge malté français. Sa lente distillation en alambic à repasse permet d’obtenir une eau-de-vie qui, après vieillissement en fûts de chêne français, dévoile tout son bouquet aromatique. Une palette de saveurs développée par l’association de céréales et la richesse aromatique d’anciens fûts de Chardonnay français.
 Pendant 3 ans, le whisky est affiné en barrique avant d’être assemblé et lentement réduit à l’eau douce de Tarare pour atteindre les 46 %.
-Vente et export
-Les produits Ninkasi sont en vente dans toutes les enseignes ainsi que sur un site de vente en ligne ouvert en octobre 2016[10].
-Ninkasi exporte ses produits vers l'Italie[11],[12] et dans six autres pays : Suisse, Corée du Sud[13], Luxembourg, Pays-Bas, Suède et la Norvège. En 2019 ils débutent également en Asie avec Hong-Kong et Singapour sur le site de mymarket.com.hk et my-market.sg.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ninkasi_(brasserie)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ninkasi_(brasserie)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activité et produits</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vente et export</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits Ninkasi sont en vente dans toutes les enseignes ainsi que sur un site de vente en ligne ouvert en octobre 2016.
+Ninkasi exporte ses produits vers l'Italie, et dans six autres pays : Suisse, Corée du Sud, Luxembourg, Pays-Bas, Suède et la Norvège. En 2019 ils débutent également en Asie avec Hong-Kong et Singapour sur le site de mymarket.com.hk et my-market.sg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Communication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développement durable
-Ninkasi investit dans le développement durable : les déchets du malt, les drêches servent de nourriture pour les vaches des exploitations locales.  
-Récompenses
-Les bières Ninkasi ont été récompensées lors de concours nationaux et internationaux de plusieurs prix :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Développement durable</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ninkasi investit dans le développement durable : les déchets du malt, les drêches servent de nourriture pour les vaches des exploitations locales.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ninkasi_(brasserie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bières Ninkasi ont été récompensées lors de concours nationaux et internationaux de plusieurs prix :
 concours général agricole :
-médaille d’or en 2004[14], 2011 et 2015[15], 2018
-médaille d'argent en 2003, 2007[14], 2009, 2014[15], 2017
+médaille d’or en 2004, 2011 et 2015, 2018
+médaille d'argent en 2003, 2007, 2009, 2014, 2017
 médaille de bronze en 2006, 2008, 2010, 2016, 2018
 Brussels Beer Challenge :
 médaille d'or en 2013
@@ -655,7 +818,7 @@
 Grand Prix Ale pour la Grand Cru #002 en 2017
 France Beer Challenge
 médaille d'argent en 2018
-La Ninkasi Blanche a reçu la mention "coup de cœur" du guide hachette des bières en 2016[16].
+La Ninkasi Blanche a reçu la mention "coup de cœur" du guide hachette des bières en 2016.
 La Grand Cru #001 a reçu la mention « coup de cœur » et « bière exceptionnelle » du Guide Hachette des Bières en 2015.
 </t>
         </is>
